--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vip-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vip-Vipr1.xlsx
@@ -537,16 +537,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1847786666666667</v>
+        <v>0.3882076666666667</v>
       </c>
       <c r="H2">
-        <v>0.5543360000000001</v>
+        <v>1.164623</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.345887</v>
+        <v>0.358199</v>
       </c>
       <c r="N2">
-        <v>1.037661</v>
+        <v>1.074597</v>
       </c>
       <c r="O2">
-        <v>0.04833359961208698</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="P2">
-        <v>0.04833359961208697</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="Q2">
-        <v>0.06391253867733333</v>
+        <v>0.1390555979923333</v>
       </c>
       <c r="R2">
-        <v>0.575212848096</v>
+        <v>1.251500381931</v>
       </c>
       <c r="S2">
-        <v>0.04833359961208698</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="T2">
-        <v>0.04833359961208697</v>
+        <v>0.08728684579662628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1847786666666667</v>
+        <v>0.3882076666666667</v>
       </c>
       <c r="H3">
-        <v>0.5543360000000001</v>
+        <v>1.164623</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.05909</v>
       </c>
       <c r="O3">
-        <v>0.002752375198719254</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="P3">
-        <v>0.002752375198719253</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="Q3">
-        <v>0.003639523804444444</v>
+        <v>0.007646397007777777</v>
       </c>
       <c r="R3">
-        <v>0.03275571424</v>
+        <v>0.06881757307</v>
       </c>
       <c r="S3">
-        <v>0.002752375198719254</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="T3">
-        <v>0.002752375198719253</v>
+        <v>0.004799733963637202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1847786666666667</v>
+        <v>0.3882076666666667</v>
       </c>
       <c r="H4">
-        <v>0.5543360000000001</v>
+        <v>1.164623</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.828140666666667</v>
+        <v>0.09277333333333333</v>
       </c>
       <c r="N4">
-        <v>5.484422</v>
+        <v>0.27832</v>
       </c>
       <c r="O4">
-        <v>0.2554609424963657</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="P4">
-        <v>0.2554609424963656</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="Q4">
-        <v>0.3378013948657778</v>
+        <v>0.03601531926222222</v>
       </c>
       <c r="R4">
-        <v>3.040212553792001</v>
+        <v>0.32413787336</v>
       </c>
       <c r="S4">
-        <v>0.2554609424963657</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="T4">
-        <v>0.2554609424963656</v>
+        <v>0.02260724245658328</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1847786666666667</v>
+        <v>0.3882076666666667</v>
       </c>
       <c r="H5">
-        <v>0.5543360000000001</v>
+        <v>1.164623</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.180732333333333</v>
+        <v>0.3029856666666667</v>
       </c>
       <c r="N5">
-        <v>3.542197</v>
+        <v>0.908957</v>
       </c>
       <c r="O5">
-        <v>0.1649933181888263</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="P5">
-        <v>0.1649933181888262</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="Q5">
-        <v>0.2181741462435556</v>
+        <v>0.1176213586901111</v>
       </c>
       <c r="R5">
-        <v>1.963567316192</v>
+        <v>1.058592228211</v>
       </c>
       <c r="S5">
-        <v>0.1649933181888263</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="T5">
-        <v>0.1649933181888262</v>
+        <v>0.07383231992529668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1847786666666667</v>
+        <v>0.3882076666666667</v>
       </c>
       <c r="H6">
-        <v>0.5543360000000001</v>
+        <v>1.164623</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.445826333333333</v>
+        <v>3.282161</v>
       </c>
       <c r="N6">
-        <v>4.337479</v>
+        <v>9.846483000000001</v>
       </c>
       <c r="O6">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="P6">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="Q6">
-        <v>0.2671578621048889</v>
+        <v>1.274160063434334</v>
       </c>
       <c r="R6">
-        <v>2.404420758944</v>
+        <v>11.467440570909</v>
       </c>
       <c r="S6">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="T6">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1847786666666667</v>
+        <v>0.3882076666666667</v>
       </c>
       <c r="H7">
-        <v>0.5543360000000001</v>
+        <v>1.164623</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.335960333333333</v>
+        <v>0.047884</v>
       </c>
       <c r="N7">
-        <v>7.007880999999999</v>
+        <v>0.143652</v>
       </c>
       <c r="O7">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="P7">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="Q7">
-        <v>0.4316356357795555</v>
+        <v>0.01858893591066667</v>
       </c>
       <c r="R7">
-        <v>3.884720722016</v>
+        <v>0.167300423196</v>
       </c>
       <c r="S7">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="T7">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
     </row>
   </sheetData>
